--- a/Universal_Driver_soft/UniversalDriver_v3.1_BLDC/Map Registers UDriver_3.1_BLDC.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v3.1_BLDC/Map Registers UDriver_3.1_BLDC.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CB6F4-36A2-4AA1-908A-223938D9A0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Десятичная</t>
   </si>
@@ -188,12 +187,21 @@
   </si>
   <si>
     <t>Направление вращения</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Версия и дата прошивки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,23 +812,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -856,23 +847,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1048,30 +1022,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="15"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -1079,7 +1053,7 @@
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1091,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1110,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1129,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1148,7 @@
       <c r="F7" s="26"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1167,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1180,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1193,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1206,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1219,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1232,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1245,7 @@
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1258,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1271,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1342,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1355,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1368,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +1381,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1394,7 @@
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1407,7 @@
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1420,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1433,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1472,7 +1446,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1459,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
@@ -1498,7 +1472,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1485,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1498,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1511,7 @@
       <c r="F30" s="35"/>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1524,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1537,7 @@
       <c r="F32" s="35"/>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1550,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1563,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -1602,7 +1576,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1615,7 +1589,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
@@ -1628,7 +1602,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1615,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
@@ -1654,7 +1628,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -1667,7 +1641,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1654,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1667,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
@@ -1706,7 +1680,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1693,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
@@ -1732,7 +1706,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>33</v>
       </c>
@@ -1745,7 +1719,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>34</v>
       </c>
@@ -1758,7 +1732,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="36"/>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +1745,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>36</v>
       </c>
@@ -1783,6 +1757,21 @@
       <c r="E49" s="34"/>
       <c r="F49" s="35"/>
       <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6">
+        <v>100</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1798,12 +1787,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1811,12 +1800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
